--- a/data/trans_orig/IBSE_100-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IBSE_100-Edad-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>87.6485034381196</v>
+        <v>87.64850343811959</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>82.15869654427881</v>
+        <v>82.15869654427884</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85.04368587951912</v>
+        <v>85.04368587951913</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>85.67975681737978</v>
+        <v>85.8630460280839</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>79.07052491048123</v>
+        <v>78.82520935896811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83.43095451647611</v>
+        <v>83.18453960347713</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>89.33860117616283</v>
+        <v>89.65850006978575</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>84.52921264061092</v>
+        <v>84.60965006709881</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86.69753766153471</v>
+        <v>86.55140640819035</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>81.40289969622448</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>79.97595569357745</v>
+        <v>79.97595569357746</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>80.67358980815469</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>79.4499496634875</v>
+        <v>79.54567029965969</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>78.13757878525566</v>
+        <v>78.20612068460099</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79.43209360107495</v>
+        <v>79.37345231044614</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>83.37147892045729</v>
+        <v>83.26113886093849</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>81.40390103823165</v>
+        <v>81.39189055945637</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>81.92383786451569</v>
+        <v>81.93908178570553</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>78.82747919052173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79.62146340928177</v>
+        <v>79.62146340928179</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>78.72627780794444</v>
+        <v>78.8529407796683</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>77.77681681436901</v>
+        <v>77.66384820571655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78.55280864835277</v>
+        <v>78.59897825302308</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>81.90015253814286</v>
+        <v>81.99424076858907</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>79.97951267422353</v>
+        <v>79.99720186664209</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80.60652323956172</v>
+        <v>80.58072754731673</v>
       </c>
     </row>
     <row r="13">
@@ -728,10 +728,10 @@
         <v>77.44661546006297</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>74.74285896343662</v>
+        <v>74.74285896343663</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76.06459014288797</v>
+        <v>76.06459014288798</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>75.91020814398907</v>
+        <v>76.07860181271913</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>73.64307653564138</v>
+        <v>73.63808210946858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75.21147272651287</v>
+        <v>75.1894657569116</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>78.70964786066381</v>
+        <v>78.83603324621534</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>75.7463243644784</v>
+        <v>75.68717903548185</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>76.9853475154539</v>
+        <v>76.85456677130054</v>
       </c>
     </row>
     <row r="16">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>73.58677958550015</v>
+        <v>73.58677958550017</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>70.06735221169923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71.83574503184292</v>
+        <v>71.83574503184293</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>72.08537587020702</v>
+        <v>71.988996259066</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>68.86479794704137</v>
+        <v>68.75489379128972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70.79321046882801</v>
+        <v>70.86611518303162</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>75.09999602362245</v>
+        <v>75.07442407670517</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>71.26847380109484</v>
+        <v>71.30406653739716</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72.84208355984369</v>
+        <v>72.75689988291934</v>
       </c>
     </row>
     <row r="19">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>74.58743671937866</v>
+        <v>74.58743671937864</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>70.01209088768306</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72.21432864788022</v>
+        <v>72.21432864788021</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>73.07060623606995</v>
+        <v>73.10559140784814</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>68.59775879310725</v>
+        <v>68.64668384041508</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71.19918661177329</v>
+        <v>71.21157624822521</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>76.15150660886428</v>
+        <v>76.02074981697154</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>71.32099734991911</v>
+        <v>71.28892328201439</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>73.22097062568878</v>
+        <v>73.18540113149446</v>
       </c>
     </row>
     <row r="22">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>67.85965275715597</v>
+        <v>67.80995958546097</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>60.20964201537132</v>
+        <v>60.44408461885838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>63.66805229392725</v>
+        <v>63.77666062419321</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>71.1545347269774</v>
+        <v>71.12629337595978</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>62.92625136801956</v>
+        <v>63.16692315519786</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>65.95246439064314</v>
+        <v>65.93408270163899</v>
       </c>
     </row>
     <row r="25">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>77.29240554290247</v>
+        <v>77.34859505492462</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>73.42641592506097</v>
+        <v>73.40278460411598</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75.47549982475108</v>
+        <v>75.48963261700409</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>78.62059031951068</v>
+        <v>78.63733324905557</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>74.5412085085795</v>
+        <v>74.51342436607966</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>76.3625159007171</v>
+        <v>76.38942344110635</v>
       </c>
     </row>
     <row r="28">
